--- a/Table/TransXlsxTable/Music.xlsx
+++ b/Table/TransXlsxTable/Music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>列描述:前三列为类型描述，后N列为有效数据配置</t>
   </si>
@@ -65,7 +65,13 @@
     <t>通用点击音效</t>
   </si>
   <si>
-    <t>cached_buy</t>
+    <t>crowned1</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>EVILLAFF</t>
   </si>
   <si>
     <t>baz</t>
@@ -84,13 +90,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,153 +559,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,13 +1092,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -1162,6 +1177,23 @@
       </c>
       <c r="E5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1222,10 +1254,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
